--- a/biology/Botanique/Anton_Eleutherius_Sauter/Anton_Eleutherius_Sauter.xlsx
+++ b/biology/Botanique/Anton_Eleutherius_Sauter/Anton_Eleutherius_Sauter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anton Eleutherius Sauter (18 avril 1800 Grossarl - 6 avril 1881 Salzbourg) est un médecin et botaniste autrichien.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1820 à 1826, il étudie la médecine à l'université de Vienne où l'un de ses instructeurs est Joseph Franz von Jacquin. Après l'obtention de son diplôme, il travaille en tant que médecin à plusieurs endroits en Autriche. En 1840, il s'installe comme médecin de Steyr. De 1848 à 1871, il est médecin régional et de district à Salzbourg[1].
-Il est largement connu pour ses recherches sur la flore indigène du Land de Salzbourg. De 1866 à 1879, il publie en sept volumes, Flora du duché de Salzbourg (Flore du duché de Salzbourg}. En 1860, il est cofondateur de la « Society for Salzburger Landeskunde ». Il est membre du conseil d'administration de 1864 à 1874. De nombreux taxons avec l'épithète spécifique de sauteri sont nommés d'après lui, l'exemple le plus connu étant Draba sauteri[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1820 à 1826, il étudie la médecine à l'université de Vienne où l'un de ses instructeurs est Joseph Franz von Jacquin. Après l'obtention de son diplôme, il travaille en tant que médecin à plusieurs endroits en Autriche. En 1840, il s'installe comme médecin de Steyr. De 1848 à 1871, il est médecin régional et de district à Salzbourg.
+Il est largement connu pour ses recherches sur la flore indigène du Land de Salzbourg. De 1866 à 1879, il publie en sept volumes, Flora du duché de Salzbourg (Flore du duché de Salzbourg}. En 1860, il est cofondateur de la « Society for Salzburger Landeskunde ». Il est membre du conseil d'administration de 1864 à 1874. De nombreux taxons avec l'épithète spécifique de sauteri sont nommés d'après lui, l'exemple le plus connu étant Draba sauteri.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tentative de description géo-botanique des environs de Vienne , 1826, imprimée par Anton v. Haykul.
 Flore du duché de Salzbourg (1866-1879), les communications de la société pour Salzburger Landeskunde, no 6 et suivants, publié en 7 parties.
